--- a/public/ydemo.xlsx
+++ b/public/ydemo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>購買者</t>
   </si>
@@ -26,10 +26,7 @@
     <t>ysp</t>
   </si>
   <si>
-    <t>ysp1</t>
-  </si>
-  <si>
-    <t>黃XX</t>
+    <t>孫葳霖</t>
   </si>
 </sst>
 </file>
@@ -397,7 +394,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
